--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC_27.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC_27.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\IWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F40A61-B9BA-49DC-8812-365F1F8F972A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A3A8FEEC-D608-4C6D-8837-2216312FCFDC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="4" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="PayNowCC_27" sheetId="1" r:id="rId1"/>
-    <sheet name="PayNowSCFCC_27" sheetId="2" r:id="rId2"/>
-    <sheet name="PayNowDCFCC_27" sheetId="3" r:id="rId3"/>
-    <sheet name="CCDeferredCC_27" sheetId="4" r:id="rId4"/>
+    <sheet name="PayNowCC_27" r:id="rId1" sheetId="1"/>
+    <sheet name="PayNowSCFCC_27" r:id="rId2" sheetId="2"/>
+    <sheet name="PayNowDCFCC_27" r:id="rId3" sheetId="3"/>
+    <sheet name="CCDeferredCC_27" r:id="rId4" sheetId="4"/>
+    <sheet name="CMCAutopayCC_27" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="37">
   <si>
     <t>Result</t>
   </si>
@@ -124,12 +125,28 @@
   </si>
   <si>
     <t>Thu Jan 23 17:27:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Tue Dec 17 17:02:38 IST 2024</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Wed Jan 29 17:30:11 IST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,20 +189,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -202,10 +219,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -240,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -275,7 +292,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -369,21 +386,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -400,7 +417,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -452,15 +469,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N2"/>
@@ -468,7 +485,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +570,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -561,8 +578,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A599422F-DB1C-494D-AC7A-FABC7A55F2B3}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A599422F-DB1C-494D-AC7A-FABC7A55F2B3}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
@@ -570,7 +587,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,13 +672,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14611B2-272D-4F6C-A3A3-34625CF21E5C}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14611B2-272D-4F6C-A3A3-34625CF21E5C}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
@@ -669,7 +686,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,24 +771,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924AD824-C93A-4DEC-A40B-651CCF250E75}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924AD824-C93A-4DEC-A40B-651CCF250E75}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.81640625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,7 +832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -858,6 +875,103 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26DA0F3-1CAA-4554-B84A-57402F442697}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC_27.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC_27.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="55">
   <si>
     <t>Result</t>
   </si>
@@ -140,6 +140,60 @@
   </si>
   <si>
     <t>Wed Jan 29 17:30:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 16:00:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 16:07:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 16:17:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 16:25:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 16:29:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 20:29:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 20:35:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:16:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:27:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:37:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 14:32:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 14:33:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 14:36:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 18:10:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 14:53:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 15:03:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 15:08:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 15:13:28 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -534,7 +588,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -636,7 +690,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -735,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -785,7 +839,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.81640625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -834,10 +888,10 @@
     </row>
     <row ht="29" r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -938,7 +992,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC_27.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC_27.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="71">
   <si>
     <t>Result</t>
   </si>
@@ -194,6 +194,54 @@
   </si>
   <si>
     <t>Wed Mar 26 15:13:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 07 21:05:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 07 21:15:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 07 21:21:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 07 21:25:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 02 21:35:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 02 21:43:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 02 21:46:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 02 21:49:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 04 12:30:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 04 12:55:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 04 12:56:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 04 13:29:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 11:45:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 11:53:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 11:57:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 12:00:19 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -588,7 +636,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -690,7 +738,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -789,7 +837,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -891,7 +939,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -992,7 +1040,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC_27.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC_27.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="76">
   <si>
     <t>Result</t>
   </si>
@@ -242,6 +242,21 @@
   </si>
   <si>
     <t>Thu Jun 05 12:00:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:59:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 30 00:08:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 30 00:12:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 30 00:15:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 30 00:18:21 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -633,10 +648,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -735,10 +750,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -834,10 +849,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -939,7 +954,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -1037,10 +1052,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC_27.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC_27.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="79">
   <si>
     <t>Result</t>
   </si>
@@ -257,6 +257,15 @@
   </si>
   <si>
     <t>Sat Aug 30 00:18:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Nov 08 13:43:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Nov 08 13:49:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Nov 08 13:53:29 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -852,7 +861,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -954,7 +963,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -1055,7 +1064,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/IWPBootstrapData/VRelayPaymentsCC_27.xlsx
+++ b/KatalonData/IWPBootstrapData/VRelayPaymentsCC_27.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="82">
   <si>
     <t>Result</t>
   </si>
@@ -266,6 +266,15 @@
   </si>
   <si>
     <t>Sat Nov 08 13:53:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 13 21:27:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 13 21:44:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 21:54:40 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -963,7 +972,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -1064,7 +1073,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
